--- a/projekt 2 rekonstrukcja/modele_tabele_jedna.xlsx
+++ b/projekt 2 rekonstrukcja/modele_tabele_jedna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Studia\Rok-4-\Magisterka\projekt 2 rekonstrukcja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294A5AB8-9B99-417D-92EF-831BE74FFBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A374E7D2-E1E7-4436-8CA7-6FC6493E29CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,15 +240,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% — akcent 3" xfId="4" builtinId="39"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,1702 +568,1510 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>0.72807017543859642</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>0.56847385418813989</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>0.55866697532304177</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>0.56927860731118873</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>0.56847385418813989</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>6.5295492891454199E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>0.74035087719298243</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>0.60061499347213632</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>0.58917373414555729</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>0.61034625751214222</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>0.60061499347213632</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>6.2189630847453499E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>0.7087719298245615</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>0.58546347832062118</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>0.57831447024407123</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>0.58370458618905818</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>0.58546347832062118</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>0.11250393698151991</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-1</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-1</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.26666666666666661</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>0.21665635951350229</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>0.20849657763464349</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>0.25775439027899222</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>0.21665635951350229</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>4.5550487006830197E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
         <v>0.45964912280701747</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>0.33608190751047889</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>0.32190939504970439</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>0.34073530681991798</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>0.33608190751047889</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <v>0.1332157083160572</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.16491228070175429</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>0.17515288943860369</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>0.13881294393251731</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>0.20086739205116069</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>0.17515288943860369</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>1.6040922129681601E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
         <v>0.21403508771929819</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>0.16874527588813301</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>0.156476229876714</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>0.19814682088841751</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>0.16874527588813301</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>3.32987064175434E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.3649122807017543</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>0.29533429533429539</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>0.2645571482621995</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>0.30866545152889768</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>0.29533429533429539</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>0.14357581382367349</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.1491228070175438</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>0.14990036418607841</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>0.12159675998883709</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>0.15883976694328469</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>0.14990036418607841</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>2.5892149293901E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>0.21052631578947359</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>0.28287981859410433</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>0.15276129363933311</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>0.1322206280117188</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>0.28287981859410433</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>3.41519142426778E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>0.75263157894736843</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>0.61915069057926198</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>0.60767350490512617</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>0.60900728312112429</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>0.61915069057926198</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>6.9310291649491498E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>0.68596491228070178</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>0.47574383288668998</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>0.46590492090053548</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>0.52346597446569776</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <v>0.47574383288668998</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <v>9.0108450734776094E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>0.72280701754385968</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>0.57223596509310803</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>0.57143628657540047</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>0.62000407386408796</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>0.57223596509310803</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <v>9.1953422816311997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>0.62280701754385959</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>0.43674843674843677</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>0.44027184416271559</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>0.52483251856713764</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>0.43674843674843677</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2">
         <v>0.1264338800103178</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>-1</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="4">
-        <v>-1</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
         <v>0.42982456140350878</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>0.32335257335257328</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>0.33429450412222977</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>0.38761358063536172</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="2">
         <v>0.32335257335257328</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="2">
         <v>4.7989828003125602E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2">
         <v>0.51403508771929829</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>0.36880711880711869</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>0.35302133618579362</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>0.39235983775333078</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="2">
         <v>0.36880711880711869</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="2">
         <v>8.4251375356065306E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
         <v>0.2859649122807017</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>0.27087198515769939</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>0.2232543599952484</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>0.27689414812775948</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="2">
         <v>0.27087198515769939</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="2">
         <v>4.5397124446430001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
         <v>0.38771929824561391</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>0.31481481481481483</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>0.30681265310047651</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>0.34988475449138501</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="2">
         <v>0.31481481481481483</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="2">
         <v>5.3426506068688102E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
         <v>0.52105263157894732</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>0.37133237133237129</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>0.35325859346386301</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>0.41758976850482038</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="2">
         <v>0.37133237133237129</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="2">
         <v>9.4208992821489895E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2">
         <v>0.2070175438596491</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>0.23086305229162371</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>0.18747243890648299</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>0.2643054626668071</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="2">
         <v>0.23086305229162371</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="2">
         <v>2.7074252877988699E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G31" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H31" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D32" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F32" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G32" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H32" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>0.1491228070175438</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>0.18764172335600901</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>8.7116555274622698E-2</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <v>8.39497363906304E-2</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="2">
         <v>0.18764172335600901</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="2">
         <v>3.01343356780235E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>0.65087719298245617</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <v>0.46918161203875491</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>0.4682958803512286</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <v>0.54943801672308623</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="2">
         <v>0.46918161203875491</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="2">
         <v>8.22111822124173E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>0.82105263157894726</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>0.54576376004947447</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>0.53069813601945148</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="2">
         <v>0.57323930774892318</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="2">
         <v>0.54576376004947447</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="2">
         <v>2.45490202074218E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>0.87017543859649127</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>0.64028035456606891</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="2">
         <v>0.63300864928679701</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="2">
         <v>0.6319911160177587</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="2">
         <v>0.64028035456606891</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="2">
         <v>1.8756649463605699E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>0.87368421052631584</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <v>0.64125953411667691</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="2">
         <v>0.6291245900914314</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="2">
         <v>0.6248207520769361</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="2">
         <v>0.64125953411667691</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="2">
         <v>1.02742903566744E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D40" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H40" s="4">
-        <v>-1</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D41" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="4">
-        <v>-1</v>
-      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
         <v>0.57894736842105265</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <v>0.44164433450147728</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="2">
         <v>0.4201222775206781</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="2">
         <v>0.43959372841672761</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="2">
         <v>0.44164433450147728</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="2">
         <v>3.8121096060849603E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2">
         <v>0.31228070175438599</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>0.33024118738404451</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="2">
         <v>0.28255422110491119</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="2">
         <v>0.35053962031644409</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="2">
         <v>0.33024118738404451</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="2">
         <v>5.4377504943135702E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2">
         <v>0.58070175438596483</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>0.48368034082319789</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="2">
         <v>0.44631989117714349</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <v>0.46251131576328758</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="2">
         <v>0.48368034082319789</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="2">
         <v>3.1926543824878299E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2">
         <v>0.57543859649122808</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>0.41469112897684329</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>0.36371521389135308</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <v>0.36107467216622557</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="2">
         <v>0.41469112897684329</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="2">
         <v>0.15020631791954281</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2">
         <v>0.3719298245614035</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <v>0.3381089809661238</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="2">
         <v>0.27796354602666379</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <v>0.32301288969756409</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="2">
         <v>0.3381089809661238</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="2">
         <v>5.65614181955316E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D48" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F48" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G48" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D49" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F49" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G49" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H49" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>0.22631578947368419</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <v>0.25774754346182921</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="2">
         <v>0.1524397331285241</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="2">
         <v>0.14996409716804049</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="2">
         <v>0.25774754346182921</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="2">
         <v>1.38378383773211E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="2">
         <v>0.85614035087719298</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>0.63971346114203254</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="2">
         <v>0.62919817922696963</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <v>0.62466400884075501</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="2">
         <v>0.63971346114203254</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="2">
         <v>1.01358667144243E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>0.83508771929824555</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>0.60765821480107185</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="2">
         <v>0.59964765644520057</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="2">
         <v>0.60680058380044855</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="2">
         <v>0.60765821480107185</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="2">
         <v>1.8284638964963199E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>0.81228070175438594</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="2">
         <v>0.63064316635745199</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="2">
         <v>0.62196189936757762</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="2">
         <v>0.62424707411170055</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="2">
         <v>0.63064316635745199</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="2">
         <v>5.8412287832263397E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>0.82280701754385976</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="2">
         <v>0.68600975743832882</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="2">
         <v>0.67585338610567025</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="2">
         <v>0.67872325314065918</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="2">
         <v>0.68600975743832882</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="2">
         <v>5.0722299207224E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D57" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F57" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G57" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H57" s="4">
-        <v>-1</v>
-      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D58" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G58" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H58" s="4">
-        <v>-1</v>
-      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="4">
+      <c r="B59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="2">
         <v>2.6315789473684199E-2</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="2">
         <v>0.14285714285714279</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="2">
         <v>7.3186859427128003E-3</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="2">
         <v>3.7593984962406E-3</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="2">
         <v>0.14285714285714279</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="2">
         <v>1.4276697424182999E-3</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="B60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="2">
         <v>0.57192982456140351</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="2">
         <v>0.42693946265374838</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="2">
         <v>0.3948283116833074</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="2">
         <v>0.39931319414858429</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="2">
         <v>0.42693946265374838</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="2">
         <v>0.1849466517579495</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="B61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="2">
         <v>2.6315789473684199E-2</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="2">
         <v>0.14285714285714279</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="2">
         <v>7.3186859427128003E-3</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="2">
         <v>3.7593984962406E-3</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="2">
         <v>0.14285714285714279</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="2">
         <v>1.4276697424182999E-3</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="B62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="2">
         <v>2.6315789473684199E-2</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="2">
         <v>0.14285714285714279</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="2">
         <v>7.3186859427128003E-3</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="2">
         <v>3.7593984962406E-3</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="2">
         <v>0.14285714285714279</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="2">
         <v>1.4276697424182999E-3</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="4">
+      <c r="B63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="2">
         <v>0.63157894736842113</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="2">
         <v>0.4969078540507112</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="2">
         <v>0.4855617603754222</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="2">
         <v>0.5143413999652432</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="2">
         <v>0.4969078540507112</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="2">
         <v>0.15601813122480779</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="4">
+      <c r="B64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="2">
         <v>2.6315789473684199E-2</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="2">
         <v>0.14285714285714279</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="2">
         <v>7.3186859427128003E-3</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="2">
         <v>3.7593984962406E-3</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="2">
         <v>0.14285714285714279</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="2">
         <v>1.4276697424182999E-3</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D65" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F65" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G65" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H65" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D66" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F66" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G66" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H66" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="2">
         <v>0.18947368421052629</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="2">
         <v>0.201590737305023</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="2">
         <v>0.1013945428773335</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="2">
         <v>7.2019711065506004E-2</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="2">
         <v>0.201590737305023</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="2">
         <v>3.3001380927603297E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="2">
         <v>0.81578947368421051</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="2">
         <v>0.70638356352642073</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="2">
         <v>0.70323622258776564</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="2">
         <v>0.72134320898476334</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="2">
         <v>0.70638356352642073</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="2">
         <v>0.12252021829604449</v>
       </c>
     </row>
